--- a/ch-7.xlsx
+++ b/ch-7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\advancing-into-analytics-book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A027C85-B3A8-4E11-BAB8-7F66842151E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47452CAE-BC86-4661-AE96-7E0D7A7BD3B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25693" yWindow="-93" windowWidth="25786" windowHeight="14586" xr2:uid="{E1B868E7-3B7A-4C27-BC73-133B52E39038}"/>
+    <workbookView xWindow="-25693" yWindow="-93" windowWidth="25786" windowHeight="13373" xr2:uid="{E1B868E7-3B7A-4C27-BC73-133B52E39038}"/>
   </bookViews>
   <sheets>
     <sheet name="ranges-to-vectors" sheetId="1" r:id="rId1"/>
@@ -505,15 +505,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCA8E13-34B3-4C92-B2BB-BB9F7A305D15}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="11.41796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.15625" customWidth="1"/>
-    <col min="8" max="8" width="10.26171875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.41796875" customWidth="1"/>
+    <col min="4" max="4" width="5.15625" customWidth="1"/>
+    <col min="5" max="8" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -524,16 +528,20 @@
         <f>UPPER(A1)</f>
         <v>BILLY</v>
       </c>
-      <c r="D1">
+      <c r="C1" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B1)</f>
+        <v>=UPPER(A1)</v>
+      </c>
+      <c r="E1">
         <v>5</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>8</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>2</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>7</v>
       </c>
     </row>
@@ -545,25 +553,25 @@
         <f t="shared" ref="B2:B5" si="0">UPPER(A2)</f>
         <v>JACK</v>
       </c>
-      <c r="D2">
-        <f>SQRT(D1)</f>
-        <v>2.2360679774997898</v>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C5" ca="1" si="1">_xlfn.FORMULATEXT(B2)</f>
+        <v>=UPPER(A2)</v>
       </c>
       <c r="E2">
         <f>SQRT(E1)</f>
-        <v>2.8284271247461903</v>
+        <v>2.2360679774997898</v>
       </c>
       <c r="F2">
         <f>SQRT(F1)</f>
-        <v>1.4142135623730951</v>
+        <v>2.8284271247461903</v>
       </c>
       <c r="G2">
         <f>SQRT(G1)</f>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="H2">
+        <f>SQRT(H1)</f>
         <v>2.6457513110645907</v>
-      </c>
-      <c r="H2" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(G2)</f>
-        <v>=SQRT(G1)</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -574,6 +582,26 @@
         <f t="shared" si="0"/>
         <v>JILL</v>
       </c>
+      <c r="C3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=UPPER(A3)</v>
+      </c>
+      <c r="E3" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(E2)</f>
+        <v>=SQRT(E1)</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:H3" ca="1" si="2">_xlfn.FORMULATEXT(F2)</f>
+        <v>=SQRT(F1)</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>=SQRT(G1)</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>=SQRT(H1)</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
@@ -583,6 +611,10 @@
         <f t="shared" si="0"/>
         <v>JOHNNY</v>
       </c>
+      <c r="C4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=UPPER(A4)</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
@@ -592,10 +624,8 @@
         <f t="shared" si="0"/>
         <v>SUSIE</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B5)</f>
+      <c r="C5" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>=UPPER(A5)</v>
       </c>
     </row>

--- a/ch-7.xlsx
+++ b/ch-7.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\advancing-into-analytics-book\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\advancing-into-analytics-book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47452CAE-BC86-4661-AE96-7E0D7A7BD3B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB476B0F-D3DB-4AC5-806F-1B60DBF97F7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25693" yWindow="-93" windowWidth="25786" windowHeight="13373" xr2:uid="{E1B868E7-3B7A-4C27-BC73-133B52E39038}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" xr2:uid="{E1B868E7-3B7A-4C27-BC73-133B52E39038}"/>
   </bookViews>
   <sheets>
     <sheet name="ranges-to-vectors" sheetId="1" r:id="rId1"/>
     <sheet name="indexing-vectors" sheetId="7" r:id="rId2"/>
-    <sheet name="vectors" sheetId="4" r:id="rId3"/>
-    <sheet name="data-frame" sheetId="6" r:id="rId4"/>
+    <sheet name="indexing-data-frames" sheetId="8" r:id="rId3"/>
+    <sheet name="vectors" sheetId="4" r:id="rId4"/>
+    <sheet name="data-frame" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="roster_names" localSheetId="2">'indexing-data-frames'!$A$2:$A$6</definedName>
     <definedName name="roster_names">'indexing-vectors'!$A$1:$A$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,30 +40,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="9">
   <si>
     <t>Billy</t>
   </si>
@@ -86,11 +66,14 @@
   <si>
     <t>injured</t>
   </si>
+  <si>
+    <t>height</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -196,7 +179,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{21CCEE01-2EF6-4EC2-B088-ECC7D3EA783B}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -206,6 +191,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2E20995A-4E1F-4FD5-9B2D-766067700C45}" name="roster" displayName="roster" ref="A1:C6" totalsRowShown="0">
+  <autoFilter ref="A1:C6" xr:uid="{2755E65D-1731-4005-BB27-9F44BBE4949A}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{B842D711-A30C-4382-BF5E-7F9F78E1BF0A}" name="name"/>
+    <tableColumn id="2" xr3:uid="{58FEC505-E473-4386-928B-3F2D1E5D1E7C}" name="height"/>
+    <tableColumn id="3" xr3:uid="{52A5E525-FFF0-4F05-A163-2F6AC0E709B1}" name="injured"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -508,19 +505,19 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.41796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.41796875" customWidth="1"/>
-    <col min="4" max="4" width="5.15625" customWidth="1"/>
-    <col min="5" max="8" width="11.68359375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.26171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" customWidth="1"/>
+    <col min="5" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -545,7 +542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -574,7 +571,7 @@
         <v>2.6457513110645907</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -603,7 +600,7 @@
         <v>=SQRT(H1)</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -616,7 +613,7 @@
         <v>=UPPER(A4)</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -636,44 +633,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8296B3-5B49-43C4-ACFC-C021C3E4C520}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="5.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+      <c r="C1" t="str">
+        <f>INDEX(roster_names, 3)</f>
+        <v>Billy</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="str" cm="1">
-        <f t="array" ref="B7">INDEX(roster_names,A7)</f>
-        <v>Jill</v>
       </c>
     </row>
   </sheetData>
@@ -682,17 +679,110 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F401E3-869A-4ABD-BE95-3D6261F481BA}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="3.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1">
+        <f>INDEX(roster[], 3, 2)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>72</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>65</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>68</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>69</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>66</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65BF7B0-6B49-48DF-BE94-B4CFCD4A2AC7}">
   <dimension ref="B3:G8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.26171875" defaultRowHeight="40.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10.21875" defaultRowHeight="40.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="6" width="13.68359375" customWidth="1"/>
+    <col min="2" max="6" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>5</v>
       </c>
@@ -708,7 +798,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -716,7 +806,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -734,7 +824,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -742,7 +832,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="b">
         <v>1</v>
       </c>
@@ -756,7 +846,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -770,20 +860,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B272EB7-72DF-415B-83EE-A391D196A259}">
   <dimension ref="B1:D6"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="40.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="40.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="4" width="15.68359375" customWidth="1"/>
+    <col min="2" max="4" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
@@ -794,7 +884,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -805,7 +895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -816,7 +906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -827,7 +917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
@@ -838,7 +928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
